--- a/work/20260213/create-mapping-info/mapping-v6.xlsx
+++ b/work/20260213/create-mapping-info/mapping-v6.xlsx
@@ -864,13 +864,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>about, adaptor</t>
+          <t>adaptor</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>about/about.json, features/adapters/adaptors.json</t>
+          <t>features/adapters/adaptors.json</t>
         </is>
       </c>
     </row>
@@ -1742,13 +1742,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1773,13 +1773,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1835,13 +1835,13 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1866,13 +1866,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1897,13 +1897,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1928,13 +1928,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1959,13 +1959,13 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1990,13 +1990,13 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -2021,13 +2021,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -2052,13 +2052,13 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2083,13 +2083,13 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2114,13 +2114,13 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2145,13 +2145,13 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2176,13 +2176,13 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2207,13 +2207,13 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2238,13 +2238,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2269,13 +2269,13 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2300,13 +2300,13 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2331,13 +2331,13 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2362,13 +2362,13 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2393,13 +2393,13 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2455,13 +2455,13 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2486,13 +2486,13 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2517,13 +2517,13 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2548,13 +2548,13 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2579,13 +2579,13 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2610,13 +2610,13 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2641,13 +2641,13 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2672,13 +2672,13 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2703,13 +2703,13 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2734,13 +2734,13 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2765,13 +2765,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2796,13 +2796,13 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2827,13 +2827,13 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2858,13 +2858,13 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2889,13 +2889,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/dbless-loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -2920,13 +2920,13 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/batch.json</t>
         </is>
       </c>
     </row>
@@ -2951,13 +2951,13 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -2982,13 +2982,13 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/process-resident-handler.json</t>
         </is>
       </c>
     </row>
@@ -3013,13 +3013,13 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/serviceavailabilitycheckhandler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3044,13 +3044,13 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/database-connection-management-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3075,13 +3075,13 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/file-record-writer-dispose-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3106,13 +3106,13 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/global-error-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3137,13 +3137,13 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/common.json</t>
         </is>
       </c>
     </row>
@@ -3168,13 +3168,13 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/permission-check-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3199,13 +3199,13 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-handler-entry.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3230,13 +3230,13 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-path-java-package-mapping.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3261,13 +3261,13 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/thread-context-clear-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3292,13 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/thread-context-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/transaction-management-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3354,13 +3354,13 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-error-handler.json</t>
         </is>
       </c>
     </row>
@@ -3385,13 +3385,13 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-request-parsing-handler.json</t>
         </is>
       </c>
     </row>
@@ -3416,13 +3416,13 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-response-building-handler.json</t>
         </is>
       </c>
     </row>
@@ -3447,13 +3447,13 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging.json</t>
         </is>
       </c>
     </row>
@@ -3478,13 +3478,13 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/handlers.json</t>
         </is>
       </c>
     </row>
@@ -3509,13 +3509,13 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/mom-messaging.json</t>
         </is>
       </c>
     </row>
@@ -3540,13 +3540,13 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/message-reply-handler.json</t>
         </is>
       </c>
     </row>
@@ -3571,13 +3571,13 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/message-resend-handler.json</t>
         </is>
       </c>
     </row>
@@ -3602,13 +3602,13 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/messaging-context-handler.json</t>
         </is>
       </c>
     </row>
@@ -3633,13 +3633,13 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/body-convert-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3664,13 +3664,13 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/cors-preflight-request-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3695,13 +3695,13 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/rest.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3726,13 +3726,13 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-access-log-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3757,13 +3757,13 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-bean-validation-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3788,13 +3788,13 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-response-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3819,13 +3819,13 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/data-read-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3850,13 +3850,13 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/duplicate-process-check-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3881,13 +3881,13 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/standalone.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3912,13 +3912,13 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/main.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3943,13 +3943,13 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/multi-thread-execution-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3974,13 +3974,13 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/process-stop-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4005,13 +4005,13 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-thread-loop-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4036,13 +4036,13 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/retry-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4067,13 +4067,13 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/status-code-convert-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4638,13 +4638,13 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/injectform.json</t>
         </is>
       </c>
     </row>
@@ -4669,13 +4669,13 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/web-interceptor.json</t>
         </is>
       </c>
     </row>
@@ -4700,13 +4700,13 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-double-submission.json</t>
         </is>
       </c>
     </row>
@@ -4731,13 +4731,13 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-error.json</t>
         </is>
       </c>
     </row>
@@ -4762,13 +4762,13 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-errors.json</t>
         </is>
       </c>
     </row>
@@ -4793,13 +4793,13 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/use-token.json</t>
         </is>
       </c>
     </row>
@@ -4855,13 +4855,13 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/permission-check.json</t>
+          <t>features/libraries/permission-check.json</t>
         </is>
       </c>
     </row>
@@ -4886,13 +4886,13 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, rest</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/role-check.json</t>
+          <t>features/libraries/role-check.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -4917,13 +4917,13 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/bean-util.json</t>
+          <t>features/libraries/bean-util.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -4948,13 +4948,13 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/code.json</t>
+          <t>features/libraries/code.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -4979,13 +4979,13 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-converter.json</t>
+          <t>features/libraries/data-converter.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5010,13 +5010,13 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-bind.json</t>
+          <t>features/libraries/data-bind.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5041,13 +5041,13 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-format.json</t>
+          <t>features/libraries/data-format.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5072,13 +5072,13 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/format-definition.json</t>
+          <t>features/libraries/format-definition.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5103,13 +5103,13 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/multi-format-example.json</t>
+          <t>features/libraries/multi-format-example.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5134,13 +5134,13 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5165,13 +5165,13 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/database.json</t>
+          <t>features/libraries/database.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5196,13 +5196,13 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5227,13 +5227,13 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/generator.json</t>
+          <t>features/libraries/generator.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5258,13 +5258,13 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/universal-dao.json</t>
+          <t>features/libraries/universal-dao.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5289,13 +5289,13 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/database-management.json</t>
+          <t>features/libraries/database-management.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5320,13 +5320,13 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/date.json</t>
+          <t>features/libraries/date.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5351,13 +5351,13 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/db-double-submit.json</t>
+          <t>features/libraries/db-double-submit.json</t>
         </is>
       </c>
     </row>
@@ -5382,13 +5382,13 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/exclusive-control.json</t>
+          <t>features/libraries/exclusive-control.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5413,13 +5413,13 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/file-path-management.json</t>
+          <t>features/libraries/file-path-management.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5444,13 +5444,13 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/format.json</t>
+          <t>features/libraries/format.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5475,13 +5475,13 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/libraries.json</t>
+          <t>features/libraries/libraries.json</t>
         </is>
       </c>
     </row>
@@ -5506,13 +5506,13 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/log.json</t>
+          <t>features/libraries/log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5537,13 +5537,13 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/failure-log.json</t>
+          <t>features/libraries/failure-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5568,13 +5568,13 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/http-access-log.json</t>
+          <t>features/libraries/http-access-log.json</t>
         </is>
       </c>
     </row>
@@ -5599,13 +5599,13 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, rest</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/jaxrs-access-log.json</t>
+          <t>features/libraries/jaxrs-access-log.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5630,13 +5630,13 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/messaging-log.json</t>
+          <t>features/libraries/messaging-log.json</t>
         </is>
       </c>
     </row>
@@ -5661,13 +5661,13 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/performance-log.json</t>
+          <t>features/libraries/performance-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5692,13 +5692,13 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/sql-log.json</t>
+          <t>features/libraries/sql-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5723,13 +5723,13 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/mail.json</t>
+          <t>features/libraries/mail.json</t>
         </is>
       </c>
     </row>
@@ -5754,13 +5754,13 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/message.json</t>
+          <t>features/libraries/message.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5785,13 +5785,13 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/permission-check.json</t>
+          <t>features/libraries/permission-check.json</t>
         </is>
       </c>
     </row>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/repository.json</t>
+          <t>features/libraries/repository.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5847,13 +5847,13 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/service-availability.json</t>
+          <t>features/libraries/service-availability.json</t>
         </is>
       </c>
     </row>
@@ -5878,13 +5878,13 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/session-store.json</t>
+          <t>features/libraries/session-store.json</t>
         </is>
       </c>
     </row>
@@ -5909,13 +5909,13 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/create-example.json</t>
+          <t>features/libraries/create-example.json</t>
         </is>
       </c>
     </row>
@@ -5940,13 +5940,13 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/update-example.json</t>
+          <t>features/libraries/update-example.json</t>
         </is>
       </c>
     </row>
@@ -5971,13 +5971,13 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/stateless-web-app.json</t>
+          <t>features/libraries/stateless-web-app.json</t>
         </is>
       </c>
     </row>
@@ -6002,13 +6002,13 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/static-data-cache.json</t>
+          <t>features/libraries/static-data-cache.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6033,13 +6033,13 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/system-messaging.json</t>
+          <t>features/libraries/system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -6064,13 +6064,13 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/http-system-messaging.json</t>
+          <t>features/libraries/http-system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -6095,13 +6095,13 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/mom-system-messaging.json</t>
+          <t>features/libraries/mom-system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -6126,13 +6126,13 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/tag.json</t>
+          <t>features/libraries/tag.json</t>
         </is>
       </c>
     </row>
@@ -6157,13 +6157,13 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/tag-reference.json</t>
+          <t>features/libraries/tag-reference.json</t>
         </is>
       </c>
     </row>
@@ -6188,13 +6188,13 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/transaction.json</t>
+          <t>features/libraries/transaction.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6219,13 +6219,13 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/utility.json</t>
+          <t>features/libraries/utility.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6250,13 +6250,13 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/validation.json</t>
+          <t>features/libraries/validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6281,13 +6281,13 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/bean-validation.json</t>
+          <t>features/libraries/bean-validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6312,13 +6312,13 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6343,13 +6343,13 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/nablarch-validation.json</t>
+          <t>features/libraries/nablarch-validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6907,13 +6907,13 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -6938,13 +6938,13 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -6969,13 +6969,13 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7000,13 +7000,13 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7031,13 +7031,13 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7062,13 +7062,13 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7093,13 +7093,13 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7776,13 +7776,13 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7807,13 +7807,13 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7838,13 +7838,13 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7869,13 +7869,13 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7900,13 +7900,13 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7931,13 +7931,13 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7962,13 +7962,13 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7993,13 +7993,13 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8024,13 +8024,13 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8055,13 +8055,13 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8086,13 +8086,13 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8117,13 +8117,13 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8148,13 +8148,13 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8179,13 +8179,13 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8210,13 +8210,13 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8241,13 +8241,13 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8334,13 +8334,13 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8365,13 +8365,13 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8458,13 +8458,13 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8489,13 +8489,13 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8520,13 +8520,13 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8551,13 +8551,13 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8613,13 +8613,13 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8644,13 +8644,13 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8675,13 +8675,13 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8706,13 +8706,13 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8737,13 +8737,13 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8768,13 +8768,13 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/development-tools.json</t>
+          <t>features/tools/development-tools.json</t>
         </is>
       </c>
     </row>
@@ -8799,13 +8799,13 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/java-static-analysis.json</t>
+          <t>features/tools/java-static-analysis.json</t>
         </is>
       </c>
     </row>
@@ -8892,13 +8892,13 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-entityunittest.json</t>
+          <t>features/tools/01-entityunittest.json</t>
         </is>
       </c>
     </row>
@@ -8954,13 +8954,13 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-classunittest.json</t>
+          <t>features/tools/01-classunittest.json</t>
         </is>
       </c>
     </row>
@@ -9202,13 +9202,13 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/02-requestunittest.json</t>
+          <t>features/tools/02-requestunittest.json</t>
         </is>
       </c>
     </row>
@@ -9481,13 +9481,13 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/03-dealunittest.json</t>
+          <t>features/tools/03-dealunittest.json</t>
         </is>
       </c>
     </row>
@@ -9605,13 +9605,13 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/05-unittestguide.json</t>
+          <t>features/tools/05-unittestguide.json</t>
         </is>
       </c>
     </row>
@@ -9977,13 +9977,13 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/06-testfwguide.json</t>
+          <t>features/tools/06-testfwguide.json</t>
         </is>
       </c>
     </row>
@@ -10070,13 +10070,13 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-httpdumptool.json</t>
+          <t>features/tools/01-httpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -10163,13 +10163,13 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/02-masterdatasetup.json</t>
+          <t>features/tools/02-masterdatasetup.json</t>
         </is>
       </c>
     </row>
@@ -10194,13 +10194,13 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/03-htmlchecktool.json</t>
+          <t>features/tools/03-htmlchecktool.json</t>
         </is>
       </c>
     </row>
@@ -10225,13 +10225,13 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/08-testtools.json</t>
+          <t>features/tools/08-testtools.json</t>
         </is>
       </c>
     </row>
@@ -10256,13 +10256,13 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/testing-framework.json</t>
+          <t>features/tools/testing-framework.json</t>
         </is>
       </c>
     </row>
@@ -10349,13 +10349,13 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/jspstaticanalysis.json</t>
+          <t>features/tools/jspstaticanalysis.json</t>
         </is>
       </c>
     </row>
@@ -10442,13 +10442,13 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/toolbox.json</t>
+          <t>features/tools/toolbox.json</t>
         </is>
       </c>
     </row>
@@ -10473,13 +10473,13 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -10628,13 +10628,13 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>about, migration</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr">
         <is>
-          <t>about/about.json, about/migration/migration.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>
@@ -10690,13 +10690,13 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>about, migration</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr">
         <is>
-          <t>about/about.json, about/migration/migration.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>
@@ -11558,13 +11558,13 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern</t>
+          <t>dev-guide-other, dev-guide-pattern, batch-nablarch</t>
         </is>
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -14131,13 +14131,13 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern</t>
+          <t>dev-guide-other, dev-guide-pattern, batch-nablarch</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16495,12 +16495,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>about, adaptor</t>
+          <t>adaptor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>about/about.json, features/adapters/adaptors.json</t>
+          <t>features/adapters/adaptors.json</t>
         </is>
       </c>
     </row>
@@ -16920,12 +16920,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16945,12 +16945,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16970,12 +16970,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16995,12 +16995,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17020,12 +17020,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17045,12 +17045,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17070,12 +17070,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17095,12 +17095,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17120,12 +17120,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17145,12 +17145,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17170,12 +17170,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17195,12 +17195,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17220,12 +17220,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17245,12 +17245,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17270,12 +17270,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17295,12 +17295,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17320,12 +17320,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17345,12 +17345,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17370,12 +17370,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17395,12 +17395,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17420,12 +17420,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17445,12 +17445,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17470,12 +17470,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17495,12 +17495,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17520,12 +17520,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17545,12 +17545,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17570,12 +17570,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17595,12 +17595,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17620,12 +17620,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17645,12 +17645,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17670,12 +17670,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -17695,12 +17695,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -17720,12 +17720,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -17745,12 +17745,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -17770,12 +17770,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -17795,12 +17795,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -17820,12 +17820,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -17845,12 +17845,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/dbless-loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -17870,12 +17870,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/batch.json</t>
         </is>
       </c>
     </row>
@@ -17895,12 +17895,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -17920,12 +17920,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/process-resident-handler.json</t>
         </is>
       </c>
     </row>
@@ -17945,12 +17945,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/serviceavailabilitycheckhandler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17970,12 +17970,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/database-connection-management-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17995,12 +17995,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/file-record-writer-dispose-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/global-error-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18045,12 +18045,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/common.json</t>
         </is>
       </c>
     </row>
@@ -18070,12 +18070,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/permission-check-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18095,12 +18095,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-handler-entry.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18120,12 +18120,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-path-java-package-mapping.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18145,12 +18145,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/thread-context-clear-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18170,12 +18170,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/thread-context-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18195,12 +18195,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/transaction-management-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18220,12 +18220,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-error-handler.json</t>
         </is>
       </c>
     </row>
@@ -18245,12 +18245,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-request-parsing-handler.json</t>
         </is>
       </c>
     </row>
@@ -18270,12 +18270,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-response-building-handler.json</t>
         </is>
       </c>
     </row>
@@ -18295,12 +18295,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging.json</t>
         </is>
       </c>
     </row>
@@ -18320,12 +18320,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/handlers.json</t>
         </is>
       </c>
     </row>
@@ -18345,12 +18345,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/mom-messaging.json</t>
         </is>
       </c>
     </row>
@@ -18370,12 +18370,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/message-reply-handler.json</t>
         </is>
       </c>
     </row>
@@ -18395,12 +18395,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/message-resend-handler.json</t>
         </is>
       </c>
     </row>
@@ -18420,12 +18420,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/messaging-context-handler.json</t>
         </is>
       </c>
     </row>
@@ -18445,12 +18445,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/body-convert-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18470,12 +18470,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/cors-preflight-request-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18495,12 +18495,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/rest.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18520,12 +18520,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-access-log-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18545,12 +18545,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-bean-validation-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18570,12 +18570,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-response-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18595,12 +18595,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/data-read-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18620,12 +18620,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/duplicate-process-check-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18645,12 +18645,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/standalone.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18670,12 +18670,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/main.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18695,12 +18695,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/multi-thread-execution-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18720,12 +18720,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/process-stop-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18745,12 +18745,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-thread-loop-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18770,12 +18770,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/retry-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18795,12 +18795,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/status-code-convert-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -18820,12 +18820,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/injectform.json</t>
         </is>
       </c>
     </row>
@@ -18845,12 +18845,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/web-interceptor.json</t>
         </is>
       </c>
     </row>
@@ -18870,12 +18870,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-double-submission.json</t>
         </is>
       </c>
     </row>
@@ -18895,12 +18895,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-error.json</t>
         </is>
       </c>
     </row>
@@ -18920,12 +18920,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-errors.json</t>
         </is>
       </c>
     </row>
@@ -18945,12 +18945,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/use-token.json</t>
         </is>
       </c>
     </row>
@@ -18995,12 +18995,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/permission-check.json</t>
+          <t>features/libraries/permission-check.json</t>
         </is>
       </c>
     </row>
@@ -19020,12 +19020,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, rest</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/role-check.json</t>
+          <t>features/libraries/role-check.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19045,12 +19045,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/bean-util.json</t>
+          <t>features/libraries/bean-util.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19070,12 +19070,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/code.json</t>
+          <t>features/libraries/code.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19095,12 +19095,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-converter.json</t>
+          <t>features/libraries/data-converter.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -19120,12 +19120,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-bind.json</t>
+          <t>features/libraries/data-bind.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -19145,12 +19145,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-format.json</t>
+          <t>features/libraries/data-format.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -19170,12 +19170,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/format-definition.json</t>
+          <t>features/libraries/format-definition.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -19195,12 +19195,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/multi-format-example.json</t>
+          <t>features/libraries/multi-format-example.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -19245,12 +19245,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/database.json</t>
+          <t>features/libraries/database.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19270,12 +19270,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19295,12 +19295,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/generator.json</t>
+          <t>features/libraries/generator.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19320,12 +19320,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/universal-dao.json</t>
+          <t>features/libraries/universal-dao.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19345,12 +19345,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/database-management.json</t>
+          <t>features/libraries/database-management.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19370,12 +19370,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/date.json</t>
+          <t>features/libraries/date.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19395,12 +19395,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/db-double-submit.json</t>
+          <t>features/libraries/db-double-submit.json</t>
         </is>
       </c>
     </row>
@@ -19420,12 +19420,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/exclusive-control.json</t>
+          <t>features/libraries/exclusive-control.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19445,12 +19445,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/file-path-management.json</t>
+          <t>features/libraries/file-path-management.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -19470,12 +19470,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/format.json</t>
+          <t>features/libraries/format.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19495,12 +19495,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/libraries.json</t>
+          <t>features/libraries/libraries.json</t>
         </is>
       </c>
     </row>
@@ -19520,12 +19520,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/log.json</t>
+          <t>features/libraries/log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19545,12 +19545,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/failure-log.json</t>
+          <t>features/libraries/failure-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19570,12 +19570,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/http-access-log.json</t>
+          <t>features/libraries/http-access-log.json</t>
         </is>
       </c>
     </row>
@@ -19595,12 +19595,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, rest</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/jaxrs-access-log.json</t>
+          <t>features/libraries/jaxrs-access-log.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19620,12 +19620,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/messaging-log.json</t>
+          <t>features/libraries/messaging-log.json</t>
         </is>
       </c>
     </row>
@@ -19645,12 +19645,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/performance-log.json</t>
+          <t>features/libraries/performance-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19670,12 +19670,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/sql-log.json</t>
+          <t>features/libraries/sql-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19695,12 +19695,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/mail.json</t>
+          <t>features/libraries/mail.json</t>
         </is>
       </c>
     </row>
@@ -19720,12 +19720,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/message.json</t>
+          <t>features/libraries/message.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19745,12 +19745,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/permission-check.json</t>
+          <t>features/libraries/permission-check.json</t>
         </is>
       </c>
     </row>
@@ -19770,12 +19770,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/repository.json</t>
+          <t>features/libraries/repository.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19795,12 +19795,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/service-availability.json</t>
+          <t>features/libraries/service-availability.json</t>
         </is>
       </c>
     </row>
@@ -19820,12 +19820,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/session-store.json</t>
+          <t>features/libraries/session-store.json</t>
         </is>
       </c>
     </row>
@@ -19845,12 +19845,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/create-example.json</t>
+          <t>features/libraries/create-example.json</t>
         </is>
       </c>
     </row>
@@ -19870,12 +19870,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/update-example.json</t>
+          <t>features/libraries/update-example.json</t>
         </is>
       </c>
     </row>
@@ -19895,12 +19895,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/stateless-web-app.json</t>
+          <t>features/libraries/stateless-web-app.json</t>
         </is>
       </c>
     </row>
@@ -19920,12 +19920,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/static-data-cache.json</t>
+          <t>features/libraries/static-data-cache.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19945,12 +19945,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/system-messaging.json</t>
+          <t>features/libraries/system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -19970,12 +19970,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/http-system-messaging.json</t>
+          <t>features/libraries/http-system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -19995,12 +19995,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/mom-system-messaging.json</t>
+          <t>features/libraries/mom-system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -20020,12 +20020,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/tag.json</t>
+          <t>features/libraries/tag.json</t>
         </is>
       </c>
     </row>
@@ -20045,12 +20045,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/tag-reference.json</t>
+          <t>features/libraries/tag-reference.json</t>
         </is>
       </c>
     </row>
@@ -20070,12 +20070,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/transaction.json</t>
+          <t>features/libraries/transaction.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20095,12 +20095,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/utility.json</t>
+          <t>features/libraries/utility.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/validation.json</t>
+          <t>features/libraries/validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20145,12 +20145,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/bean-validation.json</t>
+          <t>features/libraries/bean-validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20170,12 +20170,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20195,12 +20195,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/nablarch-validation.json</t>
+          <t>features/libraries/nablarch-validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20345,12 +20345,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20370,12 +20370,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20395,12 +20395,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20445,12 +20445,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20470,12 +20470,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20495,12 +20495,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20545,12 +20545,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20570,12 +20570,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20595,12 +20595,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20620,12 +20620,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20645,12 +20645,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20670,12 +20670,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20695,12 +20695,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20720,12 +20720,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20745,12 +20745,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20770,12 +20770,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20795,12 +20795,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20820,12 +20820,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20845,12 +20845,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20870,12 +20870,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20895,12 +20895,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20920,12 +20920,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20995,12 +20995,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21020,12 +21020,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21095,12 +21095,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21120,12 +21120,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21145,12 +21145,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21170,12 +21170,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21220,12 +21220,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21245,12 +21245,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21270,12 +21270,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21295,12 +21295,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21320,12 +21320,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21345,12 +21345,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/development-tools.json</t>
+          <t>features/tools/development-tools.json</t>
         </is>
       </c>
     </row>
@@ -21370,12 +21370,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/java-static-analysis.json</t>
+          <t>features/tools/java-static-analysis.json</t>
         </is>
       </c>
     </row>
@@ -21445,12 +21445,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-entityunittest.json</t>
+          <t>features/tools/01-entityunittest.json</t>
         </is>
       </c>
     </row>
@@ -21495,12 +21495,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-classunittest.json</t>
+          <t>features/tools/01-classunittest.json</t>
         </is>
       </c>
     </row>
@@ -21695,12 +21695,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/02-requestunittest.json</t>
+          <t>features/tools/02-requestunittest.json</t>
         </is>
       </c>
     </row>
@@ -21920,12 +21920,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/03-dealunittest.json</t>
+          <t>features/tools/03-dealunittest.json</t>
         </is>
       </c>
     </row>
@@ -22020,12 +22020,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/05-unittestguide.json</t>
+          <t>features/tools/05-unittestguide.json</t>
         </is>
       </c>
     </row>
@@ -22320,12 +22320,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/06-testfwguide.json</t>
+          <t>features/tools/06-testfwguide.json</t>
         </is>
       </c>
     </row>
@@ -22395,12 +22395,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-httpdumptool.json</t>
+          <t>features/tools/01-httpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -22470,12 +22470,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/02-masterdatasetup.json</t>
+          <t>features/tools/02-masterdatasetup.json</t>
         </is>
       </c>
     </row>
@@ -22495,12 +22495,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/03-htmlchecktool.json</t>
+          <t>features/tools/03-htmlchecktool.json</t>
         </is>
       </c>
     </row>
@@ -22520,12 +22520,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/08-testtools.json</t>
+          <t>features/tools/08-testtools.json</t>
         </is>
       </c>
     </row>
@@ -22545,12 +22545,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/testing-framework.json</t>
+          <t>features/tools/testing-framework.json</t>
         </is>
       </c>
     </row>
@@ -22620,12 +22620,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/jspstaticanalysis.json</t>
+          <t>features/tools/jspstaticanalysis.json</t>
         </is>
       </c>
     </row>
@@ -22695,12 +22695,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/toolbox.json</t>
+          <t>features/tools/toolbox.json</t>
         </is>
       </c>
     </row>
@@ -22720,12 +22720,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -22845,12 +22845,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>about, migration</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>about/about.json, about/migration/migration.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>
@@ -22895,12 +22895,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>about, migration</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>about/about.json, about/migration/migration.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>
@@ -23595,12 +23595,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern</t>
+          <t>dev-guide-other, dev-guide-pattern, batch-nablarch</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -25670,12 +25670,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern</t>
+          <t>dev-guide-other, dev-guide-pattern, batch-nablarch</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>

--- a/work/20260213/create-mapping-info/mapping-v6.xlsx
+++ b/work/20260213/create-mapping-info/mapping-v6.xlsx
@@ -14,8 +14,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All Files'!$A$1:$G$515</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'In Scope'!$A$1:$E$444</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Out of Scope'!$A$1:$D$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'In Scope'!$A$1:$E$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Out of Scope'!$A$1:$D$64</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -510,11 +510,11 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>86.2%</t>
+          <t>87.7%</t>
         </is>
       </c>
     </row>
@@ -525,11 +525,11 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>12.3%</t>
         </is>
       </c>
     </row>
@@ -6367,18 +6367,22 @@
           <t>アプリケーションの責務配置</t>
         </is>
       </c>
-      <c r="D192" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6394,18 +6398,22 @@
           <t>アーキテクチャ概要</t>
         </is>
       </c>
-      <c r="D193" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6421,18 +6429,22 @@
           <t>機能詳細</t>
         </is>
       </c>
-      <c r="D194" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6448,18 +6460,22 @@
           <t>データベースをキューとしたメッセージングのエラー処理</t>
         </is>
       </c>
-      <c r="D195" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6475,18 +6491,22 @@
           <t>マルチプロセス化</t>
         </is>
       </c>
-      <c r="D196" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr"/>
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6502,18 +6522,22 @@
           <t>Getting Started</t>
         </is>
       </c>
-      <c r="D197" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr"/>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6529,18 +6553,22 @@
           <t>テーブルキューを監視し未処理データを取り込むアプリケーションの作成</t>
         </is>
       </c>
-      <c r="D198" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6556,18 +6584,22 @@
           <t>テーブルをキューとして使ったメッセージング</t>
         </is>
       </c>
-      <c r="D199" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr"/>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -16261,7 +16293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E444"/>
+  <dimension ref="A1:E452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20210,22 +20242,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/architecture.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/application_design.rst</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>アーキテクチャ</t>
+          <t>アプリケーションの責務配置</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -20235,22 +20267,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/big_picture.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/architecture.rst</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>全体像</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -20260,22 +20292,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details.rst</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Nablarchアプリケーションフレームワークとは</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -20285,22 +20317,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/platform.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details/error_processing.rst</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>稼動環境</t>
+          <t>データベースをキューとしたメッセージングのエラー処理</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -20310,22 +20342,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/policy.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details/multiple_process.rst</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>基本方針</t>
+          <t>マルチプロセス化</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -20335,22 +20367,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeAvailableCharacters.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/getting_started.rst</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>使用可能文字の追加手順</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -20360,22 +20392,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeMessageIDAndMessage.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/getting_started/table_queue.rst</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>メッセージID及びメッセージ内容の変更手順</t>
+          <t>テーブルキューを監視し未処理データを取り込むアプリケーションの作成</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -20385,22 +20417,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeSystemTableName.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/index.rst</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Nablarchフレームワークが使用するテーブル名の変更手順</t>
+          <t>テーブルをキューとして使ったメッセージング</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -20410,22 +20442,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/config_key_naming.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/architecture.rst</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>環境設定値の項目名ルール</t>
+          <t>アーキテクチャ</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -20435,22 +20467,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/big_picture.rst</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>デフォルト設定値からの設定変更方法</t>
+          <t>全体像</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -20460,22 +20492,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/ManagingEnvironmentalConfiguration/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/index.rst</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>処理方式、環境に依存する設定の管理方法</t>
+          <t>Nablarchアプリケーションフレームワークとは</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -20485,22 +20517,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/platform.rst</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Nablarchアプリケーションフレームワーク設定ガイド</t>
+          <t>稼動環境</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -20510,22 +20542,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/functional_comparison.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/nablarch/policy.rst</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Jakarta RESTful Web Servicesサポート/Jakarta RESTful Web Services/HTTPメッセージングの機能比較</t>
+          <t>基本方針</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -20535,22 +20567,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/application_design.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeAvailableCharacters.rst</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>アプリケーションの責務配置</t>
+          <t>使用可能文字の追加手順</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20560,22 +20592,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/architecture.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeMessageIDAndMessage.rst</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>メッセージID及びメッセージ内容の変更手順</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20585,22 +20617,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/feature_details.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeSystemTableName.rst</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>Nablarchフレームワークが使用するテーブル名の変更手順</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20610,22 +20642,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/getting_started/getting_started.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/config_key_naming.rst</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>環境設定値の項目名ルール</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20635,22 +20667,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/getting_started/save/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/index.rst</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>登録機能の作成</t>
+          <t>デフォルト設定値からの設定変更方法</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20660,22 +20692,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/ManagingEnvironmentalConfiguration/index.rst</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HTTPメッセージング編</t>
+          <t>処理方式、環境に依存する設定の管理方法</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20685,22 +20717,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/setting_guide/index.rst</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ウェブサービス編</t>
+          <t>Nablarchアプリケーションフレームワーク設定ガイド</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -20710,22 +20742,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/application_design.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/functional_comparison.rst</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>RESTFulウェブサービスの責務配置</t>
+          <t>Jakarta RESTful Web Servicesサポート/Jakarta RESTful Web Services/HTTPメッセージングの機能比較</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>about, rest</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>about/about.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20735,22 +20767,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/architecture.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/application_design.rst</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>アプリケーションの責務配置</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20760,22 +20792,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/feature_details.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/architecture.rst</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20785,22 +20817,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/feature_details/resource_signature.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/feature_details.rst</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>リソース(アクション)クラスの実装に関して</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20810,22 +20842,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/create/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/getting_started/getting_started.rst</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>登録機能の作成</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20835,22 +20867,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/getting_started/save/index.rst</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>登録機能の作成</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20860,22 +20892,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/search/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/index.rst</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>検索機能の作成</t>
+          <t>HTTPメッセージング編</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20885,12 +20917,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/update/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/index.rst</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>更新機能の作成</t>
+          <t>ウェブサービス編</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -20910,12 +20942,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/application_design.rst</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>RESTfulウェブサービス編</t>
+          <t>RESTFulウェブサービスの責務配置</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -20935,22 +20967,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/architecture.rst</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Nablarchアプリケーションフレームワーク</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20960,22 +20992,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/01/0101_PBKDF2PasswordEncryptor.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/feature_details.rst</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PBKDF2を用いたパスワード暗号化機能サンプル</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -20985,22 +21017,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/01/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/feature_details/resource_signature.rst</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>データベースを用いたパスワード認証機能サンプル</t>
+          <t>リソース(アクション)クラスの実装に関して</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -21010,22 +21042,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/03/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/create/index.rst</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>検索結果の一覧表示</t>
+          <t>登録機能の作成</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -21035,22 +21067,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/04/0401_ExtendedDataFormatter.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/index.rst</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>データフォーマッタの拡張</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -21060,22 +21092,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/04/0402_ExtendedFieldType.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/search/index.rst</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>データフォーマッタ機能におけるフィールドタイプの拡張</t>
+          <t>検索機能の作成</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -21085,22 +21117,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/04/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/update/index.rst</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>フォーマッタ機能の拡張</t>
+          <t>更新機能の作成</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -21110,22 +21142,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/05/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web_service/rest/index.rst</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>データベースを用いたファイル管理機能サンプル</t>
+          <t>RESTfulウェブサービス編</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -21135,22 +21167,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/08/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/index.rst</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HTMLメール送信機能サンプル</t>
+          <t>Nablarchアプリケーションフレームワーク</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -21160,12 +21192,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/09/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/01/0101_PBKDF2PasswordEncryptor.rst</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>bouncycastleを使用した電子署名つきメールの送信サンプルの使用方法</t>
+          <t>PBKDF2を用いたパスワード暗号化機能サンプル</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -21185,12 +21217,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/10/contents/OnlineAccessLogStatistics.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/01/index.rst</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>オンラインアクセスログ集計機能</t>
+          <t>データベースを用いたパスワード認証機能サンプル</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -21210,12 +21242,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/10/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/03/index.rst</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ログ集計サンプルの使用方法</t>
+          <t>検索結果の一覧表示</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -21235,12 +21267,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/11/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/04/0401_ExtendedDataFormatter.rst</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>メッセージング基盤テストシミュレータサンプル</t>
+          <t>データフォーマッタの拡張</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -21260,12 +21292,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/12/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/04/0402_ExtendedFieldType.rst</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>OIDCのIDトークンを用いた認証サンプル</t>
+          <t>データフォーマッタ機能におけるフィールドタイプの拡張</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -21285,12 +21317,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/13/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/04/index.rst</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Logbookを用いたリクエスト/レスポンスログ出力サンプル</t>
+          <t>フォーマッタ機能の拡張</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -21310,12 +21342,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/biz_samples/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/05/index.rst</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>目的別の実装サンプル集</t>
+          <t>データベースを用いたファイル管理機能サンプル</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -21335,22 +21367,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/08/index.rst</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Nablarch開発ツール</t>
+          <t>HTMLメール送信機能サンプル</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>features/tools/development-tools.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21360,22 +21392,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/java_static_analysis/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/09/index.rst</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>効率的なJava静的チェック</t>
+          <t>bouncycastleを使用した電子署名つきメールの送信サンプルの使用方法</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>features/tools/java-static-analysis.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21385,22 +21417,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/01_entityUnitTestWithBeanValidation.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/10/contents/OnlineAccessLogStatistics.rst</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Bean Validationに対応したForm/Entityのクラス単体テスト</t>
+          <t>オンラインアクセスログ集計機能</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>features/tools/01-entityunittestwithbeanvalidation.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21410,22 +21442,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/02_entityUnitTestWithNablarchValidation.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/10/index.rst</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Nablarch Validationに対応したForm/Entityのクラス単体テスト</t>
+          <t>ログ集計サンプルの使用方法</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>features/tools/02-entityunittestwithnablarchvalidation.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21435,22 +21467,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/11/index.rst</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Form/Entityの単体テスト</t>
+          <t>メッセージング基盤テストシミュレータサンプル</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>features/tools/01-entityunittest.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21460,22 +21492,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/02_componentUnitTest.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/12/index.rst</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Action/Componentのクラス単体テスト</t>
+          <t>OIDCのIDトークンを用いた認証サンプル</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>features/tools/02-componentunittest.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21485,22 +21517,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/13/index.rst</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>クラス単体テストの実施方法</t>
+          <t>Logbookを用いたリクエスト/レスポンスログ出力サンプル</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>features/tools/01-classunittest.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21510,22 +21542,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/batch.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/biz_samples/index.rst</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(バッチ)</t>
+          <t>目的別の実装サンプル集</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>features/tools/batch.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -21535,12 +21567,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/delayed_receive.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/index.rst</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法（応答不要メッセージ受信処理）</t>
+          <t>Nablarch開発ツール</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -21550,7 +21582,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>features/tools/delayed-receive.json</t>
+          <t>features/tools/development-tools.json</t>
         </is>
       </c>
     </row>
@@ -21560,12 +21592,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/delayed_send.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/java_static_analysis/index.rst</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法（応答不要メッセージ送信処理）</t>
+          <t>効率的なJava静的チェック</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -21575,7 +21607,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>features/tools/delayed-send.json</t>
+          <t>features/tools/java-static-analysis.json</t>
         </is>
       </c>
     </row>
@@ -21585,12 +21617,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/double_transmission.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/01_entityUnitTestWithBeanValidation.rst</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>二重サブミット防止機能のテスト実施方法</t>
+          <t>Bean Validationに対応したForm/Entityのクラス単体テスト</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -21600,7 +21632,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>features/tools/double-transmission.json</t>
+          <t>features/tools/01-entityunittestwithbeanvalidation.json</t>
         </is>
       </c>
     </row>
@@ -21610,12 +21642,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/fileupload.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/02_entityUnitTestWithNablarchValidation.rst</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(ファイルアップロード)</t>
+          <t>Nablarch Validationに対応したForm/Entityのクラス単体テスト</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -21625,7 +21657,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>features/tools/fileupload.json</t>
+          <t>features/tools/02-entityunittestwithnablarchvalidation.json</t>
         </is>
       </c>
     </row>
@@ -21635,12 +21667,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_real.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/index.rst</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法（HTTP同期応答メッセージ受信処理）</t>
+          <t>Form/Entityの単体テスト</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -21650,7 +21682,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>features/tools/http-real.json</t>
+          <t>features/tools/01-entityunittest.json</t>
         </is>
       </c>
     </row>
@@ -21660,12 +21692,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_send_sync.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/02_componentUnitTest.rst</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(HTTP同期応答メッセージ送信処理)</t>
+          <t>Action/Componentのクラス単体テスト</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -21675,7 +21707,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>features/tools/http-send-sync.json</t>
+          <t>features/tools/02-componentunittest.json</t>
         </is>
       </c>
     </row>
@@ -21685,12 +21717,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/index.rst</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法</t>
+          <t>クラス単体テストの実施方法</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -21700,7 +21732,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>features/tools/02-requestunittest.json</t>
+          <t>features/tools/01-classunittest.json</t>
         </is>
       </c>
     </row>
@@ -21710,12 +21742,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/mail.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/batch.rst</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(メール送信)</t>
+          <t>リクエスト単体テストの実施方法(バッチ)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -21725,7 +21757,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>features/tools/mail.json</t>
+          <t>features/tools/batch.json</t>
         </is>
       </c>
     </row>
@@ -21735,12 +21767,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/real.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/delayed_receive.rst</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(同期応答メッセージ受信処理)</t>
+          <t>リクエスト単体テストの実施方法（応答不要メッセージ受信処理）</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -21750,7 +21782,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>features/tools/real.json</t>
+          <t>features/tools/delayed-receive.json</t>
         </is>
       </c>
     </row>
@@ -21760,12 +21792,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/rest.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/delayed_send.rst</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法（応答不要メッセージ送信処理）</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -21775,7 +21807,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>features/tools/rest.json</t>
+          <t>features/tools/delayed-send.json</t>
         </is>
       </c>
     </row>
@@ -21785,12 +21817,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/send_sync.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/double_transmission.rst</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(同期応答メッセージ送信処理)</t>
+          <t>二重サブミット防止機能のテスト実施方法</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -21800,7 +21832,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>features/tools/send-sync.json</t>
+          <t>features/tools/double-transmission.json</t>
         </is>
       </c>
     </row>
@@ -21810,12 +21842,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/batch.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/fileupload.rst</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法（バッチ）</t>
+          <t>リクエスト単体テストの実施方法(ファイルアップロード)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -21825,7 +21857,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>features/tools/batch.json</t>
+          <t>features/tools/fileupload.json</t>
         </is>
       </c>
     </row>
@@ -21835,12 +21867,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/delayed_receive.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_real.rst</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法（応答不要メッセージ受信処理）</t>
+          <t>リクエスト単体テストの実施方法（HTTP同期応答メッセージ受信処理）</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -21850,7 +21882,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>features/tools/delayed-receive.json</t>
+          <t>features/tools/http-real.json</t>
         </is>
       </c>
     </row>
@@ -21860,12 +21892,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/delayed_send.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_send_sync.rst</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法（応答不要メッセージ送信処理）</t>
+          <t>リクエスト単体テストの実施方法(HTTP同期応答メッセージ送信処理)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -21875,7 +21907,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>features/tools/delayed-send.json</t>
+          <t>features/tools/http-send-sync.json</t>
         </is>
       </c>
     </row>
@@ -21885,12 +21917,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/http_send_sync.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/index.rst</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>HTTP同期応答メッセージ送信処理を伴う取引単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -21900,7 +21932,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>features/tools/http-send-sync.json</t>
+          <t>features/tools/02-requestunittest.json</t>
         </is>
       </c>
     </row>
@@ -21910,12 +21942,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/mail.rst</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法(メール送信)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -21925,7 +21957,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>features/tools/03-dealunittest.json</t>
+          <t>features/tools/mail.json</t>
         </is>
       </c>
     </row>
@@ -21935,12 +21967,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/real.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/real.rst</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法（同期応答メッセージ受信処理)</t>
+          <t>リクエスト単体テストの実施方法(同期応答メッセージ受信処理)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -21960,12 +21992,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/rest.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/rest.rst</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -21985,12 +22017,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/send_sync.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/send_sync.rst</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>同期応答メッセージ送信処理を伴う取引単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法(同期応答メッセージ送信処理)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -22010,12 +22042,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/batch.rst</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>単体テスト実施方法</t>
+          <t>取引単体テストの実施方法（バッチ）</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -22025,7 +22057,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>features/tools/05-unittestguide.json</t>
+          <t>features/tools/batch.json</t>
         </is>
       </c>
     </row>
@@ -22035,12 +22067,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/01_Abstract.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/delayed_receive.rst</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>自動テストフレームワーク</t>
+          <t>取引単体テストの実施方法（応答不要メッセージ受信処理）</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -22050,7 +22082,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>features/tools/01-abstract.json</t>
+          <t>features/tools/delayed-receive.json</t>
         </is>
       </c>
     </row>
@@ -22060,12 +22092,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/02_DbAccessTest.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/delayed_send.rst</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>データベースを使用するクラスのテスト</t>
+          <t>取引単体テストの実施方法（応答不要メッセージ送信処理）</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -22075,7 +22107,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>features/tools/02-dbaccesstest.json</t>
+          <t>features/tools/delayed-send.json</t>
         </is>
       </c>
     </row>
@@ -22085,12 +22117,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/02_RequestUnitTest.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/http_send_sync.rst</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（ウェブアプリケーション）</t>
+          <t>HTTP同期応答メッセージ送信処理を伴う取引単体テストの実施方法</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -22100,7 +22132,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>features/tools/02-requestunittest.json</t>
+          <t>features/tools/http-send-sync.json</t>
         </is>
       </c>
     </row>
@@ -22110,12 +22142,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/03_Tips.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/index.rst</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>目的別API使用方法</t>
+          <t>取引単体テストの実施方法</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -22125,7 +22157,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>features/tools/03-tips.json</t>
+          <t>features/tools/03-dealunittest.json</t>
         </is>
       </c>
     </row>
@@ -22135,12 +22167,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/04_MasterDataRestore.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/real.rst</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>マスタデータ復旧機能</t>
+          <t>取引単体テストの実施方法（同期応答メッセージ受信処理)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -22150,7 +22182,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>features/tools/04-masterdatarestore.json</t>
+          <t>features/tools/real.json</t>
         </is>
       </c>
     </row>
@@ -22160,12 +22192,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/JUnit5_Extension.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/rest.rst</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>JUnit 5用拡張機能</t>
+          <t>取引単体テストの実施方法</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -22175,7 +22207,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>features/tools/junit5-extension.json</t>
+          <t>features/tools/rest.json</t>
         </is>
       </c>
     </row>
@@ -22185,12 +22217,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_batch.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/send_sync.rst</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（バッチ処理）</t>
+          <t>同期応答メッセージ送信処理を伴う取引単体テストの実施方法</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -22200,7 +22232,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-batch.json</t>
+          <t>features/tools/send-sync.json</t>
         </is>
       </c>
     </row>
@@ -22210,12 +22242,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_http_send_sync.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/index.rst</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（HTTP同期応答メッセージ送信処理）</t>
+          <t>単体テスト実施方法</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -22225,7 +22257,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-http-send-sync.json</t>
+          <t>features/tools/05-unittestguide.json</t>
         </is>
       </c>
     </row>
@@ -22235,12 +22267,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_real.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/01_Abstract.rst</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（メッセージ受信処理）</t>
+          <t>自動テストフレームワーク</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -22250,7 +22282,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-real.json</t>
+          <t>features/tools/01-abstract.json</t>
         </is>
       </c>
     </row>
@@ -22260,12 +22292,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_rest.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/02_DbAccessTest.rst</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（RESTfulウェブサービス）</t>
+          <t>データベースを使用するクラスのテスト</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -22275,7 +22307,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-rest.json</t>
+          <t>features/tools/02-dbaccesstest.json</t>
         </is>
       </c>
     </row>
@@ -22285,12 +22317,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_send_sync.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/02_RequestUnitTest.rst</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（同期応答メッセージ送信処理）</t>
+          <t>リクエスト単体テスト（ウェブアプリケーション）</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -22300,7 +22332,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-send-sync.json</t>
+          <t>features/tools/02-requestunittest.json</t>
         </is>
       </c>
     </row>
@@ -22310,12 +22342,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/03_Tips.rst</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>自動テストフレームワークの使用方法</t>
+          <t>目的別API使用方法</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -22325,7 +22357,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>features/tools/06-testfwguide.json</t>
+          <t>features/tools/03-tips.json</t>
         </is>
       </c>
     </row>
@@ -22335,12 +22367,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/01_HttpDumpTool.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/04_MasterDataRestore.rst</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>リクエスト単体データ作成ツール</t>
+          <t>マスタデータ復旧機能</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -22350,7 +22382,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>features/tools/01-httpdumptool.json</t>
+          <t>features/tools/04-masterdatarestore.json</t>
         </is>
       </c>
     </row>
@@ -22360,12 +22392,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/02_SetUpHttpDumpTool.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/JUnit5_Extension.rst</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>リクエスト単体データ作成ツール インストールガイド</t>
+          <t>JUnit 5用拡張機能</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -22375,7 +22407,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>features/tools/02-setuphttpdumptool.json</t>
+          <t>features/tools/junit5-extension.json</t>
         </is>
       </c>
     </row>
@@ -22385,12 +22417,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_batch.rst</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>リクエスト単体データ作成ツール</t>
+          <t>リクエスト単体テスト（バッチ処理）</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -22400,7 +22432,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>features/tools/01-httpdumptool.json</t>
+          <t>features/tools/requestunittest-batch.json</t>
         </is>
       </c>
     </row>
@@ -22410,12 +22442,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/01_MasterDataSetupTool.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_http_send_sync.rst</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>マスタデータ投入ツール</t>
+          <t>リクエスト単体テスト（HTTP同期応答メッセージ送信処理）</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -22425,7 +22457,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>features/tools/01-masterdatasetuptool.json</t>
+          <t>features/tools/requestunittest-http-send-sync.json</t>
         </is>
       </c>
     </row>
@@ -22435,12 +22467,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/02_ConfigMasterDataSetupTool.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_real.rst</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>マスタデータ投入ツール インストールガイド</t>
+          <t>リクエスト単体テスト（メッセージ受信処理）</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -22450,7 +22482,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>features/tools/02-configmasterdatasetuptool.json</t>
+          <t>features/tools/requestunittest-real.json</t>
         </is>
       </c>
     </row>
@@ -22460,12 +22492,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_rest.rst</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>マスタデータ投入ツール</t>
+          <t>リクエスト単体テスト（RESTfulウェブサービス）</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -22475,7 +22507,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>features/tools/02-masterdatasetup.json</t>
+          <t>features/tools/requestunittest-rest.json</t>
         </is>
       </c>
     </row>
@@ -22485,12 +22517,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/03_HtmlCheckTool/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_send_sync.rst</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>HTMLチェックツール</t>
+          <t>リクエスト単体テスト（同期応答メッセージ送信処理）</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -22500,7 +22532,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>features/tools/03-htmlchecktool.json</t>
+          <t>features/tools/requestunittest-send-sync.json</t>
         </is>
       </c>
     </row>
@@ -22510,12 +22542,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/index.rst</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>プログラミング工程で使用するツール</t>
+          <t>自動テストフレームワークの使用方法</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -22525,7 +22557,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>features/tools/08-testtools.json</t>
+          <t>features/tools/06-testfwguide.json</t>
         </is>
       </c>
     </row>
@@ -22535,12 +22567,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/01_HttpDumpTool.rst</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>テスティングフレームワーク</t>
+          <t>リクエスト単体データ作成ツール</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -22550,7 +22582,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>features/tools/testing-framework.json</t>
+          <t>features/tools/01-httpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -22560,12 +22592,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/01_JspStaticAnalysis.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/02_SetUpHttpDumpTool.rst</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Jakarta Server Pages静的解析ツール</t>
+          <t>リクエスト単体データ作成ツール インストールガイド</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -22575,7 +22607,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>features/tools/01-jspstaticanalysis.json</t>
+          <t>features/tools/02-setuphttpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -22585,12 +22617,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/02_JspStaticAnalysisInstall.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/index.rst</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Jakarta Server Pages静的解析ツール 設定変更ガイド</t>
+          <t>リクエスト単体データ作成ツール</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -22600,7 +22632,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>features/tools/02-jspstaticanalysisinstall.json</t>
+          <t>features/tools/01-httpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -22610,12 +22642,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/01_MasterDataSetupTool.rst</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Jakarta Server Pages静的解析ツール</t>
+          <t>マスタデータ投入ツール</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -22625,7 +22657,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>features/tools/jspstaticanalysis.json</t>
+          <t>features/tools/01-masterdatasetuptool.json</t>
         </is>
       </c>
     </row>
@@ -22635,12 +22667,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/NablarchOpenApiGenerator/NablarchOpenApiGenerator.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/02_ConfigMasterDataSetupTool.rst</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Nablarch OpenAPI Generator</t>
+          <t>マスタデータ投入ツール インストールガイド</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -22650,7 +22682,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>features/tools/nablarchopenapigenerator.json</t>
+          <t>features/tools/02-configmasterdatasetuptool.json</t>
         </is>
       </c>
     </row>
@@ -22660,12 +22692,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/SqlExecutor/SqlExecutor.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/index.rst</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Nablarch SQL Executor</t>
+          <t>マスタデータ投入ツール</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -22675,7 +22707,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>features/tools/sqlexecutor.json</t>
+          <t>features/tools/02-masterdatasetup.json</t>
         </is>
       </c>
     </row>
@@ -22685,12 +22717,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/03_HtmlCheckTool/index.rst</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>アプリケーション開発時に使える便利なツール</t>
+          <t>HTMLチェックツール</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -22700,7 +22732,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>features/tools/toolbox.json</t>
+          <t>features/tools/03-htmlchecktool.json</t>
         </is>
       </c>
     </row>
@@ -22710,22 +22742,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/examples/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/index.rst</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Example</t>
+          <t>プログラミング工程で使用するツール</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/tools/08-testtools.json</t>
         </is>
       </c>
     </row>
@@ -22735,22 +22767,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/external_contents/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/testing_framework/index.rst</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Nablarchでの開発に役立つコンテンツ</t>
+          <t>テスティングフレームワーク</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/testing-framework.json</t>
         </is>
       </c>
     </row>
@@ -22760,22 +22792,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/01_JspStaticAnalysis.rst</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Nablarch</t>
+          <t>Jakarta Server Pages静的解析ツール</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/01-jspstaticanalysis.json</t>
         </is>
       </c>
     </row>
@@ -22785,22 +22817,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/inquiry/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/02_JspStaticAnalysisInstall.rst</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>機能追加要望・改善要望</t>
+          <t>Jakarta Server Pages静的解析ツール 設定変更ガイド</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/02-jspstaticanalysisinstall.json</t>
         </is>
       </c>
     </row>
@@ -22810,22 +22842,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/jakarta_ee/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/index.rst</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Jakarta EEの仕様名に関して</t>
+          <t>Jakarta Server Pages静的解析ツール</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/jspstaticanalysis.json</t>
         </is>
       </c>
     </row>
@@ -22835,22 +22867,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/migration/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/NablarchOpenApiGenerator/NablarchOpenApiGenerator.rst</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Nablarch 5から6への移行ガイド</t>
+          <t>Nablarch OpenAPI Generator</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>migration</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>about/migration/migration.json</t>
+          <t>features/tools/nablarchopenapigenerator.json</t>
         </is>
       </c>
     </row>
@@ -22860,22 +22892,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/nablarch_api/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/SqlExecutor/SqlExecutor.rst</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Nablarch API</t>
+          <t>Nablarch SQL Executor</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/sqlexecutor.json</t>
         </is>
       </c>
     </row>
@@ -22885,22 +22917,22 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/releases/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/development_tools/toolbox/index.rst</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>リリース情報</t>
+          <t>アプリケーション開発時に使える便利なツール</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>migration</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>about/migration/migration.json</t>
+          <t>features/tools/toolbox.json</t>
         </is>
       </c>
     </row>
@@ -22910,22 +22942,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/terms_of_use/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/examples/index.rst</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>ご利用にあたって</t>
+          <t>Example</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -22935,22 +22967,22 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-archetype-build-parent/pom.xml</t>
+          <t>nab-official/v6/nablarch-document/ja/external_contents/index.rst</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>nablarch-archetype-build-parent (pom.xml)</t>
+          <t>Nablarchでの開発に役立つコンテンツ</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -22960,22 +22992,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-archetype-parent/pom.xml</t>
+          <t>nab-official/v6/nablarch-document/ja/index.rst</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>nablarch-archetype-parent (pom.xml)</t>
+          <t>Nablarch</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -22985,22 +23017,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch-dbless/README.md</t>
+          <t>nab-official/v6/nablarch-document/ja/inquiry/index.rst</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>ディレクトリについての補足</t>
+          <t>機能追加要望・改善要望</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23010,22 +23042,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch-dbless/pom.xml</t>
+          <t>nab-official/v6/nablarch-document/ja/jakarta_ee/index.rst</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>nablarch-batch-dbless (pom.xml)</t>
+          <t>Jakarta EEの仕様名に関して</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23035,22 +23067,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch-ee/README.md</t>
+          <t>nab-official/v6/nablarch-document/ja/migration/index.rst</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>ディレクトリについての補足</t>
+          <t>Nablarch 5から6への移行ガイド</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>
@@ -23060,22 +23092,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch-ee/pom.xml</t>
+          <t>nab-official/v6/nablarch-document/ja/nablarch_api/index.rst</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>nablarch-batch-ee (pom.xml)</t>
+          <t>Nablarch API</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23085,22 +23117,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch/README.md</t>
+          <t>nab-official/v6/nablarch-document/ja/releases/index.rst</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>ディレクトリについての補足</t>
+          <t>リリース情報</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>
@@ -23110,22 +23142,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch/pom.xml</t>
+          <t>nab-official/v6/nablarch-document/ja/terms_of_use/index.rst</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>nablarch-batch (pom.xml)</t>
+          <t>ご利用にあたって</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23135,12 +23167,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-batch-dbless/README.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-archetype-build-parent/pom.xml</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ディレクトリについての補足</t>
+          <t>nablarch-archetype-build-parent (pom.xml)</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -23160,12 +23192,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-batch-dbless/pom.xml</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-archetype-parent/pom.xml</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>nablarch-container-batch-dbless (pom.xml)</t>
+          <t>nablarch-archetype-parent (pom.xml)</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -23185,7 +23217,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-batch/README.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch-dbless/README.md</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -23210,12 +23242,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-batch/pom.xml</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch-dbless/pom.xml</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>nablarch-container-batch (pom.xml)</t>
+          <t>nablarch-batch-dbless (pom.xml)</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -23235,7 +23267,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-jaxrs/README.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch-ee/README.md</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -23260,12 +23292,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-jaxrs/pom.xml</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch-ee/pom.xml</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>nablarch-container-jaxrs (pom.xml)</t>
+          <t>nablarch-batch-ee (pom.xml)</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -23285,7 +23317,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-web/README.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch/README.md</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -23310,12 +23342,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-web/pom.xml</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-batch/pom.xml</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>nablarch-container-web (pom.xml)</t>
+          <t>nablarch-batch (pom.xml)</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -23335,7 +23367,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-jaxrs/README.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-batch-dbless/README.md</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -23360,12 +23392,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-jaxrs/pom.xml</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-batch-dbless/pom.xml</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>nablarch-jaxrs (pom.xml)</t>
+          <t>nablarch-container-batch-dbless (pom.xml)</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -23385,7 +23417,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-web/README.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-batch/README.md</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -23410,12 +23442,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-web/pom.xml</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-batch/pom.xml</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>nablarch-web (pom.xml)</t>
+          <t>nablarch-container-batch (pom.xml)</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -23435,22 +23467,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/CHANGELOG.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-jaxrs/README.md</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Changelog</t>
+          <t>ディレクトリについての補足</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>archetype</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
@@ -23460,22 +23492,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/README.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-jaxrs/pom.xml</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Nablarchシステム開発ガイド</t>
+          <t>nablarch-container-jaxrs (pom.xml)</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>archetype</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
@@ -23485,22 +23517,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/Nablarchプロジェクト初期構築.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-web/README.md</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Nablarch環境構築</t>
+          <t>ディレクトリについての補足</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>archetype</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
@@ -23510,22 +23542,22 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/UI標準のカスタマイズ.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-container-web/pom.xml</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>UI標準のカスタマイズ</t>
+          <t>nablarch-container-web (pom.xml)</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>archetype</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
@@ -23535,22 +23567,22 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/nablarch-patterns/Nablarchでの非同期処理.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-jaxrs/README.md</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Nablarchでの非同期処理</t>
+          <t>ディレクトリについての補足</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern</t>
+          <t>archetype</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
@@ -23560,22 +23592,22 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/nablarch-patterns/Nablarchアンチパターン.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-jaxrs/pom.xml</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Nablarchアンチパターン</t>
+          <t>nablarch-jaxrs (pom.xml)</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>dev-guide-anti, dev-guide-other, dev-guide-pattern</t>
+          <t>archetype</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>guides/anti-patterns/dev-guide-anti.json, guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
@@ -23585,22 +23617,22 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/nablarch-patterns/Nablarchバッチ処理パターン.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-web/README.md</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Nablarchバッチ処理パターン</t>
+          <t>ディレクトリについての補足</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern, batch-nablarch</t>
+          <t>archetype</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json, features/processing/nablarch-batch.json</t>
+          <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
@@ -23610,22 +23642,22 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/nablarch-patterns/README.md</t>
+          <t>nab-official/v6/nablarch-single-module-archetype/nablarch-web/pom.xml</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Nablarchパターン集</t>
+          <t>nablarch-web (pom.xml)</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern</t>
+          <t>archetype</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
@@ -23635,12 +23667,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/チーム開発環境構築.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/CHANGELOG.md</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>チーム開発環境構築</t>
+          <t>Changelog</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -23660,12 +23692,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/テスト項目の検討.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/README.md</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>テスト項目の検討</t>
+          <t>Nablarchシステム開発ガイド</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -23685,12 +23717,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/パッケージ構成検討.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/Nablarchプロジェクト初期構築.md</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>パッケージ構成検討</t>
+          <t>Nablarch環境構築</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -23710,12 +23742,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/開発環境構築ガイドの作成.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/UI標準のカスタマイズ.md</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>開発環境構築ガイドの作成</t>
+          <t>UI標準のカスタマイズ</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -23735,22 +23767,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/nablarch-patterns/Nablarchでの非同期処理.md</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Nablarchシステム開発ガイド</t>
+          <t>Nablarchでの非同期処理</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-other, dev-guide-pattern</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
         </is>
       </c>
     </row>
@@ -23760,22 +23792,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/nablarch-patterns/Nablarchアンチパターン.md</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>サンプルプロジェクト</t>
+          <t>Nablarchアンチパターン</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-anti, dev-guide-other, dev-guide-pattern</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/anti-patterns/dev-guide-anti.json, guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
         </is>
       </c>
     </row>
@@ -23785,22 +23817,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/nablarch-patterns/Nablarchバッチ処理パターン.md</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>サンプルソースコード</t>
+          <t>Nablarchバッチ処理パターン</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-other, dev-guide-pattern, batch-nablarch</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -23810,22 +23842,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/climan-project/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/nablarch-patterns/README.md</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>顧客管理システム（Climan）</t>
+          <t>Nablarchパターン集</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-other, dev-guide-pattern</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
         </is>
       </c>
     </row>
@@ -23835,12 +23867,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/チーム開発環境構築.md</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>プロジェクト管理システム（Proman）</t>
+          <t>チーム開発環境構築</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -23860,12 +23892,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/proman-batch/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/テスト項目の検討.md</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>バッチアプリケーションの起動方法</t>
+          <t>テスト項目の検討</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -23885,12 +23917,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/proman-common/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/パッケージ構成検討.md</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>ビルド方法</t>
+          <t>パッケージ構成検討</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -23910,12 +23942,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/proman-jmeter/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Nablarchシステム開発ガイド/docs/開発環境構築ガイドの作成.md</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>proman-jmeter</t>
+          <t>開発環境構築ガイドの作成</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -23935,12 +23967,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/proman-web/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/README.md</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>アプリケーションの起動とログイン方法</t>
+          <t>Nablarchシステム開発ガイド</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -23960,12 +23992,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/checklist/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/README.md</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>チェックリスト</t>
+          <t>サンプルプロジェクト</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -23985,12 +24017,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/Serviceクラスの実装方法.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/README.md</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Serviceクラスの実装方法</t>
+          <t>サンプルソースコード</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -24010,12 +24042,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/エラー発生時のハンドリング方法（Web）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/climan-project/README.md</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>エラー発生時のハンドリング方法（Web）</t>
+          <t>顧客管理システム（Climan）</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -24035,12 +24067,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/コーディングに関する命名規約.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/README.md</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>コーディングに関する命名規約</t>
+          <t>プロジェクト管理システム（Proman）</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -24060,12 +24092,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/コーディング規約のチェック方法.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/proman-batch/README.md</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>コーディング規約のチェック方法</t>
+          <t>バッチアプリケーションの起動方法</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -24085,22 +24117,22 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/プロジェクト・パッケージ構成.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/proman-common/README.md</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>プロジェクト・パッケージ構成</t>
+          <t>ビルド方法</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-project</t>
+          <t>dev-guide-other</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/project-setup/dev-guide-project.json</t>
+          <t>guides/other/dev-guide-other.json</t>
         </is>
       </c>
     </row>
@@ -24110,12 +24142,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/一般的な処理に関する実装方法（Web）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/proman-jmeter/README.md</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>一般的な処理に関する実装方法（Web）</t>
+          <t>proman-jmeter</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -24135,12 +24167,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/一般的な処理に関する実装方法（バッチ）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/Source_Code/proman-project/proman-web/README.md</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>一般的な処理に関する実装方法（バッチ）</t>
+          <t>アプリケーションの起動とログイン方法</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -24160,12 +24192,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/静的解析チェック違反発生時の対応方法.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/checklist/README.md</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>静的解析チェック違反発生時の対応方法</t>
+          <t>チェックリスト</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -24185,12 +24217,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/Serviceクラスの実装方法.md</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>スタイルガイド</t>
+          <t>Serviceクラスの実装方法</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -24210,12 +24242,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/エラー発生時のハンドリング方法（Web）.md</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Javaスタイルガイド</t>
+          <t>エラー発生時のハンドリング方法（Web）</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -24235,12 +24267,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/code-formatter.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/コーディングに関する命名規約.md</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Javaコードフォーマッター</t>
+          <t>コーディングに関する命名規約</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -24260,12 +24292,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/java-style-guide.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/コーディング規約のチェック方法.md</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Javaコーディング規約</t>
+          <t>コーディング規約のチェック方法</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -24285,22 +24317,22 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/プロジェクト・パッケージ構成.md</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>ArchUnitガイド</t>
+          <t>プロジェクト・パッケージ構成</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-other, dev-guide-project</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/other/dev-guide-other.json, guides/project-setup/dev-guide-project.json</t>
         </is>
       </c>
     </row>
@@ -24310,12 +24342,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/docs/ArchUnit-commentary.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/一般的な処理に関する実装方法（Web）.md</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>ArchUnit解説</t>
+          <t>一般的な処理に関する実装方法（Web）</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -24335,12 +24367,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/docs/Maven-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/一般的な処理に関する実装方法（バッチ）.md</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>MavenでのArchUnitの実行方法</t>
+          <t>一般的な処理に関する実装方法（バッチ）</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -24360,12 +24392,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/docs/Ops-Rule.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/pg/静的解析チェック違反発生時の対応方法.md</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>ArchUnit運用ガイド</t>
+          <t>静的解析チェック違反発生時の対応方法</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -24385,12 +24417,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/docs/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/README.md</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>ArchUnit利用ガイド</t>
+          <t>スタイルガイド</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -24410,12 +24442,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/README.md</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Checkstyleガイド</t>
+          <t>Javaスタイルガイド</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -24435,12 +24467,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/checkstyle-example/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/code-formatter.md</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Checkstyleサンプルプロジェクト</t>
+          <t>Javaコードフォーマッター</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -24460,12 +24492,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/Checkstyle-commentary.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/java-style-guide.md</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Checkstyleルール解説</t>
+          <t>Javaコーディング規約</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -24485,12 +24517,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/Jenkins-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/README.md</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>JenkinsでのCheckstyle実行結果の収集方法</t>
+          <t>ArchUnitガイド</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -24510,12 +24542,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/Maven-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/docs/ArchUnit-commentary.md</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>MavenでのCheckstyleの実行方法</t>
+          <t>ArchUnit解説</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -24535,12 +24567,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/Ops-Rule.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/docs/Maven-settings.md</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Checkstyle運用ガイド</t>
+          <t>MavenでのArchUnitの実行方法</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -24560,12 +24592,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/docs/Ops-Rule.md</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Checkstyle利用ガイド</t>
+          <t>ArchUnit運用ガイド</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -24585,12 +24617,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/archunit/docs/README.md</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>SpotBugsガイド</t>
+          <t>ArchUnit利用ガイド</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -24610,12 +24642,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/Jenkins-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/README.md</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>JenkinsでのSpotBugs実行結果の収集方法</t>
+          <t>Checkstyleガイド</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -24635,12 +24667,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/Maven-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/checkstyle-example/README.md</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>MavenでのSpotBugsの実行方法</t>
+          <t>Checkstyleサンプルプロジェクト</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -24660,12 +24692,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/Ops-Rule.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/Checkstyle-commentary.md</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>SpotBugs運用ガイド</t>
+          <t>Checkstyleルール解説</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -24685,12 +24717,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/Jenkins-settings.md</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>SpotBugs利用ガイド</t>
+          <t>JenkinsでのCheckstyle実行結果の収集方法</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -24710,12 +24742,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/find-sec-bugs.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/Maven-settings.md</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Find Security Bugsの利用方法</t>
+          <t>MavenでのCheckstyleの実行方法</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -24735,12 +24767,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/spotbugs-example/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/Ops-Rule.md</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>SpotBugsサンプルプロジェクト</t>
+          <t>Checkstyle運用ガイド</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -24760,12 +24792,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/unpublished-api/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/checkstyle/docs/README.md</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>使用不許可APIチェックツール</t>
+          <t>Checkstyle利用ガイド</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -24785,12 +24817,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/js/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/README.md</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>JavaScriptスタイルガイド</t>
+          <t>SpotBugsガイド</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -24810,12 +24842,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/jsp/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/Jenkins-settings.md</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Jakarta Server Pagesスタイルガイド</t>
+          <t>JenkinsでのSpotBugs実行結果の収集方法</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -24835,12 +24867,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/Maven-settings.md</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>シェルスクリプトスタイルガイド</t>
+          <t>MavenでのSpotBugsの実行方法</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -24860,12 +24892,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/sql/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/Ops-Rule.md</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>SQLスタイルガイド</t>
+          <t>SpotBugs運用ガイド</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -24885,12 +24917,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/エビデンスの取得方法（ログとDBダンプ）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/README.md</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>エビデンスの取得方法（ログとDBダンプ）</t>
+          <t>SpotBugs利用ガイド</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -24910,12 +24942,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/ユニットテストのJavaDocに関する規約.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/docs/find-sec-bugs.md</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>ユニットテストのJavadocに関する規約</t>
+          <t>Find Security Bugsの利用方法</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -24935,12 +24967,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/単体テストの考え方（REST）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/spotbugs/spotbugs-example/README.md</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>単体テストの考え方（REST）</t>
+          <t>SpotBugsサンプルプロジェクト</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -24960,12 +24992,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/単体テストの考え方（Web）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/java/staticanalysis/unpublished-api/README.md</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>単体テストの考え方(Web)</t>
+          <t>使用不許可APIチェックツール</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -24985,12 +25017,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/単体テストの考え方（バッチ）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/js/README.md</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>単体テストの考え方(バッチ)</t>
+          <t>JavaScriptスタイルガイド</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -25010,12 +25042,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/取引単体テストのテスト方法（Web）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/jsp/README.md</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>取引単体テストのテスト方法（Web）</t>
+          <t>Jakarta Server Pagesスタイルガイド</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -25035,12 +25067,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/取引単体テストの自動実行方法（Web）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/shell/README.md</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>取引単体テストの自動実行方法（Web）</t>
+          <t>シェルスクリプトスタイルガイド</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -25060,12 +25092,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/バージョン管理ルール.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/proman-style-guide/sql/README.md</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>バージョン管理ルール</t>
+          <t>SQLスタイルガイド</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -25085,12 +25117,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/開発環境構築ガイド.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/エビデンスの取得方法（ログとDBダンプ）.md</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>開発環境構築ガイド</t>
+          <t>エビデンスの取得方法（ログとDBダンプ）</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -25110,12 +25142,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/ユニットテストのJavaDocに関する規約.md</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>サンプルプロジェクト開発ガイド</t>
+          <t>ユニットテストのJavadocに関する規約</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -25135,12 +25167,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/要件定義工程/画面モックアップ作成ガイド.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/単体テストの考え方（REST）.md</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>画面モックアップ作成ガイド</t>
+          <t>単体テストの考え方（REST）</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -25160,12 +25192,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/SQLファイル作成.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/単体テストの考え方（Web）.md</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>SQLファイル作成</t>
+          <t>単体テストの考え方(Web)</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -25185,12 +25217,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/WebAPIのURL設計.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/単体テストの考え方（バッチ）.md</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>WebAPIのURL設計</t>
+          <t>単体テストの考え方(バッチ)</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -25210,12 +25242,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/アプリケーション構成（REST）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/取引単体テストのテスト方法（Web）.md</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>アプリケーション構成（REST）</t>
+          <t>取引単体テストのテスト方法（Web）</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -25235,12 +25267,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/アプリケーション構成（Web）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/ut/取引単体テストの自動実行方法（Web）.md</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>アプリケーション構成(Web)</t>
+          <t>取引単体テストの自動実行方法（Web）</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -25260,12 +25292,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/アプリケーション構成（バッチ）.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/バージョン管理ルール.md</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>アプリケーション構成(バッチ)</t>
+          <t>バージョン管理ルール</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -25285,12 +25317,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/コード設計の進め方.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/PGUT工程/開発環境構築ガイド.md</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>コード設計の進め方</t>
+          <t>開発環境構築ガイド</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -25310,12 +25342,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/スクリーンショットの取得方法.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/README.md</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>システム機能設計書のスクリーンショット</t>
+          <t>サンプルプロジェクト開発ガイド</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -25335,12 +25367,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/ドメイン定義の進め方.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/要件定義工程/画面モックアップ作成ガイド.md</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>ドメイン定義の進め方</t>
+          <t>画面モックアップ作成ガイド</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -25360,12 +25392,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/設計工程におけるテスト準備.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/SQLファイル作成.md</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>設計工程におけるテスト準備</t>
+          <t>SQLファイル作成</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -25385,12 +25417,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/開発環境/CIの説明.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/WebAPIのURL設計.md</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>CIの説明</t>
+          <t>WebAPIのURL設計</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -25410,12 +25442,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/CHANGELOG.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/アプリケーション構成（REST）.md</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Changelog</t>
+          <t>アプリケーション構成（REST）</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -25435,12 +25467,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/アプリケーション構成（Web）.md</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Nablarch System Development Guide</t>
+          <t>アプリケーション構成(Web)</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -25460,12 +25492,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Examination_of_test_items.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/アプリケーション構成（バッチ）.md</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Examination of Test Items</t>
+          <t>アプリケーション構成(バッチ)</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -25485,12 +25517,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Initial_build_of_Nablarch_project.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/コード設計の進め方.md</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Nablarch Environment Construction</t>
+          <t>コード設計の進め方</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -25510,12 +25542,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Package_configuration_review.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/スクリーンショットの取得方法.md</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Package Configuration Study</t>
+          <t>システム機能設計書のスクリーンショット</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -25535,12 +25567,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Preparation_of_setup_guide_for_development_environment.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/ドメイン定義の進め方.md</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Preparation of Setup Guide for Development Environment</t>
+          <t>ドメイン定義の進め方</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -25560,12 +25592,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Setting_up_the_team_development_environment.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/設計工程/設計工程におけるテスト準備.md</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Setting Up the Team Development Environment</t>
+          <t>設計工程におけるテスト準備</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -25585,12 +25617,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/UI_standard_customization.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/Sample_Project/サンプルプロジェクト開発ガイド/開発環境/CIの説明.md</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Customization of UI Standards</t>
+          <t>CIの説明</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -25610,22 +25642,22 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/nablarch-patterns/Asynchronous_operation_in_Nablarch.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/CHANGELOG.md</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Asynchronous Operation in Nablarch</t>
+          <t>Changelog</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern</t>
+          <t>dev-guide-other</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>guides/other/dev-guide-other.json</t>
         </is>
       </c>
     </row>
@@ -25635,22 +25667,22 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/nablarch-patterns/Nablarch_anti-pattern.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/README.md</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Nablarch Anti-pattern</t>
+          <t>Nablarch System Development Guide</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>dev-guide-anti, dev-guide-other, dev-guide-pattern</t>
+          <t>dev-guide-other</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>guides/anti-patterns/dev-guide-anti.json, guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>guides/other/dev-guide-other.json</t>
         </is>
       </c>
     </row>
@@ -25660,22 +25692,22 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/nablarch-patterns/Nablarch_batch_processing_pattern.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Examination_of_test_items.md</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Nablarch Batch Processing Pattern</t>
+          <t>Examination of Test Items</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern, batch-nablarch</t>
+          <t>dev-guide-other</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json, features/processing/nablarch-batch.json</t>
+          <t>guides/other/dev-guide-other.json</t>
         </is>
       </c>
     </row>
@@ -25685,22 +25717,22 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/nablarch-patterns/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Initial_build_of_Nablarch_project.md</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Nablarch Pattern Collection</t>
+          <t>Nablarch Environment Construction</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>dev-guide-other, dev-guide-pattern</t>
+          <t>dev-guide-other</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
+          <t>guides/other/dev-guide-other.json</t>
         </is>
       </c>
     </row>
@@ -25710,12 +25742,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Package_configuration_review.md</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Nablarch System Development Guide</t>
+          <t>Package Configuration Study</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -25735,12 +25767,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Preparation_of_setup_guide_for_development_environment.md</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Sample Project</t>
+          <t>Preparation of Setup Guide for Development Environment</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -25760,12 +25792,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Application_Configuration_(REST).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/Setting_up_the_team_development_environment.md</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Application Configuration (REST)</t>
+          <t>Setting Up the Team Development Environment</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -25785,12 +25817,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Application_Configuration_(Web).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/UI_standard_customization.md</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Application Configuration (Web)</t>
+          <t>Customization of UI Standards</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -25810,22 +25842,22 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Application_Configuration_(batch).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/nablarch-patterns/Asynchronous_operation_in_Nablarch.md</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Application Configuration (Batch)</t>
+          <t>Asynchronous Operation in Nablarch</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-other, dev-guide-pattern</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
         </is>
       </c>
     </row>
@@ -25835,22 +25867,22 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Create_SQL_file.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/nablarch-patterns/Nablarch_anti-pattern.md</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Create SQL File</t>
+          <t>Nablarch Anti-pattern</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-anti, dev-guide-other, dev-guide-pattern</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/anti-patterns/dev-guide-anti.json, guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
         </is>
       </c>
     </row>
@@ -25860,22 +25892,22 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Method_to_proceed_with_code_design.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/nablarch-patterns/Nablarch_batch_processing_pattern.md</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Method to Proceed with Code Design</t>
+          <t>Nablarch Batch Processing Pattern</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-other, dev-guide-pattern, batch-nablarch</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -25885,22 +25917,22 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Method_to_proceed_with_domain_definition.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Nablarch-system-development-guide/docs/nablarch-patterns/README.md</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Method to Proceed with Domain Definition</t>
+          <t>Nablarch Pattern Collection</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>dev-guide-other</t>
+          <t>dev-guide-other, dev-guide-pattern</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>guides/other/dev-guide-other.json</t>
+          <t>guides/other/dev-guide-other.json, guides/patterns/dev-guide-pattern.json</t>
         </is>
       </c>
     </row>
@@ -25910,12 +25942,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Method_to_take_a_screenshot.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/README.md</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Screenshot of System Function Design Document</t>
+          <t>Nablarch System Development Guide</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -25935,12 +25967,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Test_preparation_in_the_design_phase.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/README.md</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Test Preparation in the Design Phase</t>
+          <t>Sample Project</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -25960,12 +25992,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/WebAPI_URL_design.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Application_Configuration_(REST).md</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>WebAPI URL Design</t>
+          <t>Application Configuration (REST)</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -25985,12 +26017,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Development_Environment/CI_description.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Application_Configuration_(Web).md</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Description of CI</t>
+          <t>Application Configuration (Web)</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -26010,12 +26042,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/Development_environment_construction_guide.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Application_Configuration_(batch).md</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Development Environment Construction Guide</t>
+          <t>Application Configuration (Batch)</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -26035,12 +26067,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/Version_management_rules.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Create_SQL_file.md</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Version Management Rules</t>
+          <t>Create SQL File</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -26060,12 +26092,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/checklist/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Method_to_proceed_with_code_design.md</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Method to Proceed with Code Design</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -26085,12 +26117,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Handling_method_when_an_error_occurs_(Web).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Method_to_proceed_with_domain_definition.md</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Handling Method When an Error Occurs（Web）</t>
+          <t>Method to Proceed with Domain Definition</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -26110,12 +26142,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Implementation_method_for_general_processing_(Web).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Method_to_take_a_screenshot.md</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Implementation Method for General Processing（Web）</t>
+          <t>Screenshot of System Function Design Document</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -26135,12 +26167,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Implementation_method_for_general_processing_(batch).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/Test_preparation_in_the_design_phase.md</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Implementation Method for General Processing（Batch）</t>
+          <t>Test Preparation in the Design Phase</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -26160,12 +26192,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Method_to_check_coding_conventions.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Design_Phase/WebAPI_URL_design.md</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Method to Check Coding Conventions</t>
+          <t>WebAPI URL Design</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -26185,12 +26217,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Method_to_implement_service_class.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Development_Environment/CI_description.md</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Method to Implement Service Class</t>
+          <t>Description of CI</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -26210,12 +26242,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Naming_convention_for_coding.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/Development_environment_construction_guide.md</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Naming Convention for Coding</t>
+          <t>Development Environment Construction Guide</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -26235,12 +26267,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Project・Package_configuration.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/Version_management_rules.md</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Project・Package Configuration</t>
+          <t>Version Management Rules</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -26260,12 +26292,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Response_method_when_a_static_analysis_check_violation_occurs.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/checklist/README.md</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Response Method When a Static Analysis Check Violation Occurs</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -26285,12 +26317,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Handling_method_when_an_error_occurs_(Web).md</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Style Guide</t>
+          <t>Handling Method When an Error Occurs（Web）</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -26310,12 +26342,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Implementation_method_for_general_processing_(Web).md</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Java Style Guide</t>
+          <t>Implementation Method for General Processing（Web）</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -26335,12 +26367,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/code-formatter.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Implementation_method_for_general_processing_(batch).md</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Java code formatter</t>
+          <t>Implementation Method for General Processing（Batch）</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -26360,12 +26392,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/java-style-guide.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Method_to_check_coding_conventions.md</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Java Coding Conventions</t>
+          <t>Method to Check Coding Conventions</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -26385,12 +26417,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Method_to_implement_service_class.md</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>ArchUnit Guide</t>
+          <t>Method to Implement Service Class</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -26410,12 +26442,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/docs/ArchUnit-commentary.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Naming_convention_for_coding.md</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>ArchUnit Commentary</t>
+          <t>Naming Convention for Coding</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -26435,12 +26467,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/docs/Maven-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Project・Package_configuration.md</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>How to run ArchUnit with Maven</t>
+          <t>Project・Package Configuration</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -26460,12 +26492,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/docs/Ops-Rule.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/pg/Response_method_when_a_static_analysis_check_violation_occurs.md</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>ArchUnit operation guide</t>
+          <t>Response Method When a Static Analysis Check Violation Occurs</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -26485,12 +26517,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/docs/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/README.md</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>ArchUnit Usage Guide</t>
+          <t>Style Guide</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -26510,12 +26542,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/README.md</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Checkstyle Guide</t>
+          <t>Java Style Guide</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -26535,12 +26567,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/checkstyle-example/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/code-formatter.md</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Checkstyle Sample Project</t>
+          <t>Java code formatter</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -26560,12 +26592,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/Checkstyle-commentary.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/java-style-guide.md</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Checkstyle Rule Explanation</t>
+          <t>Java Coding Conventions</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -26585,12 +26617,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/Jenkins-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/README.md</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Method to Collect Checkstyle Execution Results in Jenkins</t>
+          <t>ArchUnit Guide</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -26610,12 +26642,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/Maven-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/docs/ArchUnit-commentary.md</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Method to Run Checkstyle in Maven</t>
+          <t>ArchUnit Commentary</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -26635,12 +26667,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/Ops-Rule.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/docs/Maven-settings.md</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Checkstyle operation guide</t>
+          <t>How to run ArchUnit with Maven</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -26660,12 +26692,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/docs/Ops-Rule.md</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Checkstyle Usage Guide</t>
+          <t>ArchUnit operation guide</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -26685,12 +26717,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/archunit/docs/README.md</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>SpotBugs Guide</t>
+          <t>ArchUnit Usage Guide</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -26710,12 +26742,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/Jenkins-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/README.md</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Method to Collect SpotBugs Execution Results in Jenkins</t>
+          <t>Checkstyle Guide</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -26735,12 +26767,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/Maven-settings.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/checkstyle-example/README.md</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Method to Run SpotBugs in Maven</t>
+          <t>Checkstyle Sample Project</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -26760,12 +26792,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/Ops-Rule.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/Checkstyle-commentary.md</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>SpotBugs operation guide</t>
+          <t>Checkstyle Rule Explanation</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -26785,12 +26817,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/Jenkins-settings.md</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>SpotBugs Usage Guide</t>
+          <t>Method to Collect Checkstyle Execution Results in Jenkins</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -26810,12 +26842,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/find-sec-bugs.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/Maven-settings.md</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>How to use Find Security Bugs</t>
+          <t>Method to Run Checkstyle in Maven</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -26835,12 +26867,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/spotbugs-example/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/Ops-Rule.md</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>SpotBugs Sample Project</t>
+          <t>Checkstyle operation guide</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -26860,12 +26892,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/unpublished-api/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/checkstyle/docs/README.md</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Unauthorized API Check Tool</t>
+          <t>Checkstyle Usage Guide</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -26885,12 +26917,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/js/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/README.md</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>JavaScript Style Guide</t>
+          <t>SpotBugs Guide</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -26910,12 +26942,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/jsp/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/Jenkins-settings.md</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Jakarta Server Pages Style Guide</t>
+          <t>Method to Collect SpotBugs Execution Results in Jenkins</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -26935,12 +26967,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/shell/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/Maven-settings.md</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Shell Script Style Guide</t>
+          <t>Method to Run SpotBugs in Maven</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -26960,12 +26992,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/sql/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/Ops-Rule.md</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>SQL Style Guide</t>
+          <t>SpotBugs operation guide</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -26985,12 +27017,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Conventions_for_unit_test_of_JavaDoc.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/README.md</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Conventions for Unit Test of Javadoc</t>
+          <t>SpotBugs Usage Guide</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -27010,12 +27042,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/How_to_get_evidence_(log_and_DB_dump).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/docs/find-sec-bugs.md</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>How to Get Evidence (Log and DB Dump)</t>
+          <t>How to use Find Security Bugs</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -27035,12 +27067,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Test_method_of_automated_subfunction_unit_test_(Web).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/spotbugs/spotbugs-example/README.md</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Test Method of Automated Subfunction Unit Test (Web)</t>
+          <t>SpotBugs Sample Project</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -27060,12 +27092,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Test_method_of_subfunction_unit_test_(Web).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/java/staticanalysis/unpublished-api/README.md</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Test Method of Subfunction Unit Test (Web)</t>
+          <t>Unauthorized API Check Tool</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -27085,12 +27117,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Unit_test_concept_(REST).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/js/README.md</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Unit Test Concept (REST)</t>
+          <t>JavaScript Style Guide</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -27110,12 +27142,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Unit_test_concept_(Web).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/jsp/README.md</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Unit Test Concept (Web)</t>
+          <t>Jakarta Server Pages Style Guide</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -27135,12 +27167,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Unit_test_concept_(batch).md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/shell/README.md</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Unit Test Concept (Batch)</t>
+          <t>Shell Script Style Guide</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -27160,12 +27192,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/sql/README.md</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Sample Project Development Guide</t>
+          <t>SQL Style Guide</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -27185,12 +27217,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Requirements_Definition_Phase/Screen_mockup_creation_guide.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Conventions_for_unit_test_of_JavaDoc.md</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Screen Mockup Creation Guide</t>
+          <t>Conventions for Unit Test of Javadoc</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -27210,12 +27242,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/How_to_get_evidence_(log_and_DB_dump).md</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Sample Source Code</t>
+          <t>How to Get Evidence (Log and DB Dump)</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -27235,12 +27267,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/climan-project/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Test_method_of_automated_subfunction_unit_test_(Web).md</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Client Management System (Climan)</t>
+          <t>Test Method of Automated Subfunction Unit Test (Web)</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -27260,12 +27292,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Test_method_of_subfunction_unit_test_(Web).md</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Project Management System (Proman)</t>
+          <t>Test Method of Subfunction Unit Test (Web)</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -27285,12 +27317,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/proman-batch/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Unit_test_concept_(REST).md</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>How to Launch a Batch Application</t>
+          <t>Unit Test Concept (REST)</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -27310,12 +27342,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/proman-common/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Unit_test_concept_(Web).md</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>How to Build</t>
+          <t>Unit Test Concept (Web)</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -27335,12 +27367,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/proman-jmeter/README.md</t>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/Unit_test_concept_(batch).md</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>proman-jmeter</t>
+          <t>Unit Test Concept (Batch)</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -27360,27 +27392,227 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/README.md</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Sample Project Development Guide</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>guides/other/dev-guide-other.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Sample_Project_Development_Guide/Requirements_Definition_Phase/Screen_mockup_creation_guide.md</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Screen Mockup Creation Guide</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>guides/other/dev-guide-other.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/README.md</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Sample Source Code</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>guides/other/dev-guide-other.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/climan-project/README.md</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Client Management System (Climan)</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>guides/other/dev-guide-other.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/README.md</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Project Management System (Proman)</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>guides/other/dev-guide-other.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/proman-batch/README.md</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>How to Launch a Batch Application</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>guides/other/dev-guide-other.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/proman-common/README.md</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>How to Build</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>guides/other/dev-guide-other.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/proman-jmeter/README.md</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>proman-jmeter</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>guides/other/dev-guide-other.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
           <t>nab-official/v6/nablarch-system-development-guide/en/Sample_Project/Source_Code/proman-project/proman-web/README.md</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
+      <c r="C452" t="inlineStr">
         <is>
           <t>Starting the Application and Login Method</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>dev-guide-other</t>
-        </is>
-      </c>
-      <c r="E444" t="inlineStr">
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>dev-guide-other</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
         <is>
           <t>guides/other/dev-guide-other.json</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E444"/>
+  <autoFilter ref="A1:E452"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -27391,7 +27623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27434,7 +27666,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/application_design.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/application_design.rst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -27444,7 +27676,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27454,7 +27686,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/architecture.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/architecture.rst</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -27464,7 +27696,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27474,7 +27706,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details.rst</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -27484,7 +27716,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27494,17 +27726,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details/error_processing.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/database_reader.rst</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>データベースをキューとしたメッセージングのエラー処理</t>
+          <t>データベースを入力とするChunkステップ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27514,17 +27746,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details/multiple_process.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/operation_policy.rst</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>マルチプロセス化</t>
+          <t>運用方針</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27534,17 +27766,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/getting_started.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/operator_notice_log.rst</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>運用担当者向けのログ出力</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27554,17 +27786,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/getting_started/table_queue.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/pessimistic_lock.rst</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>テーブルキューを監視し未処理データを取り込むアプリケーションの作成</t>
+          <t>Jakarta Batchに準拠したバッチアプリケーションの悲観的ロック</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27574,17 +27806,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/db/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/progress_log.rst</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>テーブルをキューとして使ったメッセージング</t>
+          <t>進捗状況のログ出力</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27594,12 +27826,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/application_design.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/run_batch_application.rst</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>アプリケーションの責務配置</t>
+          <t>Jakarta Batchアプリケーションの起動</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27614,12 +27846,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/architecture.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/batchlet/index.rst</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>対象テーブルのデータを削除するバッチの作成(Batchletステップ)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27634,12 +27866,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/chunk/index.rst</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>データを導出するバッチの作成(Chunkステップ)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -27654,12 +27886,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/database_reader.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/getting_started.rst</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>データベースを入力とするChunkステップ</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -27674,12 +27906,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/operation_policy.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/index.rst</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>運用方針</t>
+          <t>Jakarta Batchに準拠したバッチアプリケーション</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -27694,17 +27926,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/operator_notice_log.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/application_design.rst</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>運用担当者向けのログ出力</t>
+          <t>アプリケーションの責務配置</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27714,17 +27946,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/pessimistic_lock.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/architecture.rst</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jakarta Batchに準拠したバッチアプリケーションの悲観的ロック</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27734,17 +27966,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/progress_log.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/feature_details.rst</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>進捗状況のログ出力</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27754,17 +27986,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/run_batch_application.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/getting_started.rst</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jakarta Batchアプリケーションの起動</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27774,17 +28006,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/batchlet/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/index.rst</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>対象テーブルのデータを削除するバッチの作成(Batchletステップ)</t>
+          <t>MOMによるメッセージング</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27794,17 +28026,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/chunk/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/index.rst</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>データを導出するバッチの作成(Chunkステップ)</t>
+          <t>メッセージング編</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27814,17 +28046,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/getting_started.rst</t>
+          <t>nab-official/v6/nablarch-document/.textlint/test/test.rst</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>textlintのテスト</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>Test files and tooling excluded</t>
         </is>
       </c>
     </row>
@@ -27834,17 +28066,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/batch/jsr352/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/HttpErrorHandler.rst</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jakarta Batchに準拠したバッチアプリケーション</t>
+          <t>HTTPエラー制御ハンドラ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27854,17 +28086,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/application_design.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/SessionStoreHandler.rst</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>アプリケーションの責務配置</t>
+          <t>セッション変数保存ハンドラ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27874,17 +28106,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/architecture.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/csrf_token_verification_handler.rst</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>CSRFトークン検証ハンドラ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27894,17 +28126,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/feature_details.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/forwarding_handler.rst</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>内部フォーワードハンドラ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27914,17 +28146,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/getting_started.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/health_check_endpoint_handler.rst</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>ヘルスチェックエンドポイントハンドラ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27934,17 +28166,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/mom/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/hot_deploy_handler.rst</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MOMによるメッセージング</t>
+          <t>ホットデプロイハンドラ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27954,17 +28186,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/messaging/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_access_log_handler.rst</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>メッセージング編</t>
+          <t>HTTPアクセスログハンドラ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27974,17 +28206,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/.textlint/test/test.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_character_encoding_handler.rst</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>textlintのテスト</t>
+          <t>HTTP文字エンコード制御ハンドラ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Test files and tooling excluded</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -27994,12 +28226,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/HttpErrorHandler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_request_java_package_mapping.rst</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HTTPエラー制御ハンドラ</t>
+          <t>HTTPリクエストディスパッチハンドラ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -28014,12 +28246,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/SessionStoreHandler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_response_handler.rst</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>セッション変数保存ハンドラ</t>
+          <t>HTTPレスポンスハンドラ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -28034,12 +28266,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/csrf_token_verification_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_rewrite_handler.rst</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CSRFトークン検証ハンドラ</t>
+          <t>HTTPリライトハンドラ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -28054,12 +28286,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/forwarding_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/index.rst</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>内部フォーワードハンドラ</t>
+          <t>ウェブアプリケーション専用ハンドラ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -28074,12 +28306,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/health_check_endpoint_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/keitai_access_handler.rst</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ヘルスチェックエンドポイントハンドラ</t>
+          <t>携帯端末アクセスハンドラ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -28094,12 +28326,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/hot_deploy_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/multipart_handler.rst</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ホットデプロイハンドラ</t>
+          <t>マルチパートリクエストハンドラ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -28114,12 +28346,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_access_log_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/nablarch_tag_handler.rst</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HTTPアクセスログハンドラ</t>
+          <t>Nablarchカスタムタグ制御ハンドラ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -28134,12 +28366,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_character_encoding_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/normalize_handler.rst</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HTTP文字エンコード制御ハンドラ</t>
+          <t>ノーマライズハンドラ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -28154,12 +28386,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_request_java_package_mapping.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/post_resubmit_prevent_handler.rst</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HTTPリクエストディスパッチハンドラ</t>
+          <t>POST再送信防止ハンドラ</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -28174,12 +28406,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_response_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/resource_mapping.rst</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HTTPレスポンスハンドラ</t>
+          <t>リソースマッピングハンドラ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -28194,12 +28426,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/http_rewrite_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/secure_handler.rst</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HTTPリライトハンドラ</t>
+          <t>セキュアハンドラ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -28214,12 +28446,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/session_concurrent_access_handler.rst</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ウェブアプリケーション専用ハンドラ</t>
+          <t>セッション並行アクセスハンドラ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -28234,12 +28466,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/keitai_access_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/application_design.rst</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>携帯端末アクセスハンドラ</t>
+          <t>アプリケーションの責務配置</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -28254,12 +28486,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/multipart_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/architecture.rst</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>マルチパートリクエストハンドラ</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -28274,12 +28506,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/nablarch_tag_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details.rst</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nablarchカスタムタグ制御ハンドラ</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -28294,12 +28526,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/normalize_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/error_message.rst</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ノーマライズハンドラ</t>
+          <t>バリデーションエラーのメッセージを画面表示する</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -28314,12 +28546,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/post_resubmit_prevent_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/forward_error_page.rst</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>POST再送信防止ハンドラ</t>
+          <t>エラー時の遷移先の指定方法</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -28334,12 +28566,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/resource_mapping.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/jsp_session.rst</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>リソースマッピングハンドラ</t>
+          <t>JSPで自動的にHTTPセッションを作成しないようにする方法</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -28354,12 +28586,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/secure_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/nablarch_servlet_context_listener.rst</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>セキュアハンドラ</t>
+          <t>Nablarchサーブレットコンテキスト初期化リスナー</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -28374,12 +28606,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/handlers/web/session_concurrent_access_handler.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/view/other.rst</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>セッション並行アクセスハンドラ</t>
+          <t>その他のテンプレートエンジンを使用した画面開発</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -28394,12 +28626,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/application_design.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/web_front_controller.rst</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>アプリケーションの責務配置</t>
+          <t>Webフロントコントローラ</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -28414,12 +28646,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/architecture.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create1.rst</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>登録画面初期表示の作成</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -28434,12 +28666,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create2.rst</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>登録内容の確認</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -28454,12 +28686,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/error_message.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create3.rst</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>バリデーションエラーのメッセージを画面表示する</t>
+          <t>登録内容確認画面から登録画面へ戻る</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -28474,12 +28706,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/forward_error_page.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create4.rst</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>エラー時の遷移先の指定方法</t>
+          <t>データベースへの登録</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -28494,12 +28726,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/jsp_session.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/index.rst</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JSPで自動的にHTTPセッションを作成しないようにする方法</t>
+          <t>登録機能の作成(ハンズオン形式)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -28514,12 +28746,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/nablarch_servlet_context_listener.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/index.rst</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nablarchサーブレットコンテキスト初期化リスナー</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -28534,12 +28766,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/view/other.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/popup/index.rst</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>その他のテンプレートエンジンを使用した画面開発</t>
+          <t>ポップアップ画面の作成</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -28554,12 +28786,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/feature_details/web_front_controller.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_bulk_update/index.rst</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Webフロントコントローラ</t>
+          <t>一括更新機能の作成</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -28574,12 +28806,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create1.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_delete/index.rst</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>登録画面初期表示の作成</t>
+          <t>削除機能の作成</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -28594,12 +28826,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create2.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_download/index.rst</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>登録内容の確認</t>
+          <t>ファイルダウンロード機能の作成</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -28614,12 +28846,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create3.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_search/index.rst</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>登録内容確認画面から登録画面へ戻る</t>
+          <t>検索機能の作成</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -28634,12 +28866,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create4.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_update/index.rst</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>データベースへの登録</t>
+          <t>更新機能の作成</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -28654,12 +28886,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_upload/index.rst</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>登録機能の作成(ハンズオン形式)</t>
+          <t>アップロードを用いた一括登録機能の作成</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -28674,12 +28906,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/index.rst</t>
+          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/index.rst</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>ウェブアプリケーション編</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -28688,168 +28920,8 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/popup/index.rst</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>ポップアップ画面の作成</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_bulk_update/index.rst</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>一括更新機能の作成</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_delete/index.rst</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>削除機能の作成</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_download/index.rst</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>ファイルダウンロード機能の作成</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_search/index.rst</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>検索機能の作成</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_update/index.rst</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>更新機能の作成</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_upload/index.rst</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>アップロードを用いた一括登録機能の作成</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>nab-official/v6/nablarch-document/ja/application_framework/application_framework/web/index.rst</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>ウェブアプリケーション編</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D72"/>
+  <autoFilter ref="A1:D64"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>